--- a/src/test/resources/Exceldata/Login.xlsx
+++ b/src/test/resources/Exceldata/Login.xlsx
@@ -10,18 +10,18 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490C27B1-CE44-4160-8533-5ADF8AD7046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="pythonCode" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>username</t>
   </si>
@@ -199,6 +199,21 @@
 sorted_squares_list = sorted(squares_list)
 return sorted_squares_list;
 sortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>Ninjacoders</t>
+  </si>
+  <si>
+    <t>Monrag@204</t>
+  </si>
+  <si>
+    <t>Numpysdet100</t>
+  </si>
+  <si>
+    <t>sdet100</t>
+  </si>
+  <si>
+    <t>sdet100batch</t>
   </si>
 </sst>
 </file>
@@ -478,18 +493,40 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C5" sqref="C5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,9 +537,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -511,34 +548,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -557,16 +594,16 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -582,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -590,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -598,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -606,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -614,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -622,7 +659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -630,7 +667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -638,7 +675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -646,7 +683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
